--- a/static/uploaded file/BME226.xlsx
+++ b/static/uploaded file/BME226.xlsx
@@ -1,29 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{344A7AE4-509B-4E8E-826F-D1FF81E665AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Python Project\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D25495D-6BB7-4CE0-950D-09BD7F2CBF36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191028"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
@@ -60,9 +52,6 @@
     <t>class_4</t>
   </si>
   <si>
-    <t>clas_5</t>
-  </si>
-  <si>
     <t>class_6</t>
   </si>
   <si>
@@ -72,9 +61,6 @@
     <t>class_8</t>
   </si>
   <si>
-    <t>clas_9</t>
-  </si>
-  <si>
     <t>class_10</t>
   </si>
   <si>
@@ -88,6 +74,12 @@
   </si>
   <si>
     <t>A</t>
+  </si>
+  <si>
+    <t>class_5</t>
+  </si>
+  <si>
+    <t>class_9</t>
   </si>
 </sst>
 </file>
@@ -131,7 +123,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -449,10 +441,10 @@
   <dimension ref="A1:M34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
@@ -497,7 +489,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -528,28 +520,28 @@
         <v>9</v>
       </c>
       <c r="F4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="H4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="I4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="J4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="L4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="M4" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -557,40 +549,40 @@
         <v>1911001</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -598,40 +590,40 @@
         <v>1911002</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -639,40 +631,40 @@
         <v>1911003</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -680,40 +672,40 @@
         <v>1911004</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -721,40 +713,40 @@
         <v>1911005</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -762,40 +754,40 @@
         <v>1911006</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -803,40 +795,40 @@
         <v>1911007</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -844,40 +836,40 @@
         <v>1911008</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -885,40 +877,40 @@
         <v>1911009</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -926,40 +918,40 @@
         <v>1911010</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -967,40 +959,40 @@
         <v>1911011</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:13">
@@ -1008,40 +1000,40 @@
         <v>1911012</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -1049,40 +1041,40 @@
         <v>1911013</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1090,40 +1082,40 @@
         <v>1911014</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1131,40 +1123,40 @@
         <v>1911015</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1172,40 +1164,40 @@
         <v>1911016</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1213,40 +1205,40 @@
         <v>1911017</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="M21" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1254,40 +1246,40 @@
         <v>1911018</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="M22" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1295,40 +1287,40 @@
         <v>1911019</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M23" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1336,40 +1328,40 @@
         <v>1911020</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="M24" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1377,40 +1369,40 @@
         <v>1911021</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="M25" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" spans="1:13">
@@ -1418,40 +1410,40 @@
         <v>1911022</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="L26" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="M26" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="27" spans="1:13">
@@ -1459,40 +1451,40 @@
         <v>1911023</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="L27" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M27" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="28" spans="1:13">
@@ -1500,40 +1492,40 @@
         <v>1911024</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="L28" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="M28" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" spans="1:13">
@@ -1541,40 +1533,40 @@
         <v>1911025</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="L29" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M29" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="30" spans="1:13">
@@ -1582,40 +1574,40 @@
         <v>1911026</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="L30" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M30" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="31" spans="1:13">
@@ -1623,40 +1615,40 @@
         <v>1911027</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="L31" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="M31" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" spans="1:13">
@@ -1664,40 +1656,40 @@
         <v>1911028</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="L32" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="M32" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" spans="1:13">
@@ -1705,40 +1697,40 @@
         <v>1911029</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K33" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="L33" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M33" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" spans="1:13">
@@ -1746,40 +1738,40 @@
         <v>1911030</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="L34" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="M34" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
